--- a/Data/performance.xlsx
+++ b/Data/performance.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Sujet</t>
+  </si>
   <si>
     <t xml:space="preserve">A1</t>
   </si>
@@ -36,6 +39,18 @@
   </si>
   <si>
     <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-15 IFT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FC de récupération</t>
   </si>
 </sst>
 </file>
@@ -392,108 +407,123 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
         <v>21</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>20</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>19</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>19.5</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>21.5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22</v>
       </c>
       <c r="G2" t="n">
         <v>22</v>
       </c>
       <c r="H2" t="n">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
         <v>21.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
         <v>44.2</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>42.5</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>46.1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>46.4</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>42.1</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>43</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>39.1</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>38.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
         <v>48.1</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>46.4</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>49.1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>49.2</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>45.4</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>46</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>42.1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>39.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
         <v>48</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>38</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>39</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>44</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>51</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>53</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>48</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>49</v>
       </c>
     </row>
